--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.0304134679353</v>
+        <v>419.2609462500103</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.7716363224034</v>
+        <v>573.651323146797</v>
       </c>
       <c r="AC2" t="n">
-        <v>415.8916766453369</v>
+        <v>518.9028459903546</v>
       </c>
       <c r="AD2" t="n">
-        <v>336030.4134679353</v>
+        <v>419260.9462500103</v>
       </c>
       <c r="AE2" t="n">
-        <v>459771.6363224034</v>
+        <v>573651.323146797</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.388399602700133e-06</v>
+        <v>2.347158415478445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.59201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>415891.6766453369</v>
+        <v>518902.8459903547</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.7239927908087</v>
+        <v>311.2108980182967</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.3151398643565</v>
+        <v>425.8124803244647</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.8359405511023</v>
+        <v>385.1735348338667</v>
       </c>
       <c r="AD3" t="n">
-        <v>248723.9927908087</v>
+        <v>311210.8980182967</v>
       </c>
       <c r="AE3" t="n">
-        <v>340315.1398643565</v>
+        <v>425812.4803244647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.746901830228988e-06</v>
+        <v>2.953224218634585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>307835.9405511023</v>
+        <v>385173.5348338667</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.7068822623619</v>
+        <v>284.1084466352779</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.3491373285584</v>
+        <v>388.72971066645</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.3979214151987</v>
+        <v>351.6298926660187</v>
       </c>
       <c r="AD4" t="n">
-        <v>221706.8822623619</v>
+        <v>284108.4466352779</v>
       </c>
       <c r="AE4" t="n">
-        <v>303349.1373285584</v>
+        <v>388729.71066645</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.88923834845745e-06</v>
+        <v>3.19385116489711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274397.9214151987</v>
+        <v>351629.8926660187</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.7151832280434</v>
+        <v>264.7023529049296</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.0462980240454</v>
+        <v>362.177437088155</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.269247826761</v>
+        <v>327.6117308116862</v>
       </c>
       <c r="AD5" t="n">
-        <v>212715.1832280434</v>
+        <v>264702.3529049296</v>
       </c>
       <c r="AE5" t="n">
-        <v>291046.2980240454</v>
+        <v>362177.4370881551</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.966101935621492e-06</v>
+        <v>3.32379287267712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.30381944444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>263269.247826761</v>
+        <v>327611.7308116863</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.607551360691</v>
+        <v>258.5947210375771</v>
       </c>
       <c r="AB6" t="n">
-        <v>282.6895666534368</v>
+        <v>353.8207057175422</v>
       </c>
       <c r="AC6" t="n">
-        <v>255.7100711694145</v>
+        <v>320.0525541543386</v>
       </c>
       <c r="AD6" t="n">
-        <v>206607.551360691</v>
+        <v>258594.7210375771</v>
       </c>
       <c r="AE6" t="n">
-        <v>282689.5666534368</v>
+        <v>353820.7057175422</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.003705105655283e-06</v>
+        <v>3.387362897345688e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.11284722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>255710.0711694145</v>
+        <v>320052.5541543385</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.4317718764557</v>
+        <v>252.7479953947966</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.5571515380915</v>
+        <v>345.8209577535957</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.689942689631</v>
+        <v>312.8162909084583</v>
       </c>
       <c r="AD7" t="n">
-        <v>190431.7718764558</v>
+        <v>252747.9953947966</v>
       </c>
       <c r="AE7" t="n">
-        <v>260557.1515380915</v>
+        <v>345820.9577535957</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.035986411773676e-06</v>
+        <v>3.441936047014607e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>235689.942689631</v>
+        <v>312816.2909084583</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>189.5793319889605</v>
+        <v>251.8955555073014</v>
       </c>
       <c r="AB8" t="n">
-        <v>259.3908056770275</v>
+        <v>344.6546118925316</v>
       </c>
       <c r="AC8" t="n">
-        <v>234.6349112405698</v>
+        <v>311.7612594593972</v>
       </c>
       <c r="AD8" t="n">
-        <v>189579.3319889605</v>
+        <v>251895.5555073014</v>
       </c>
       <c r="AE8" t="n">
-        <v>259390.8056770274</v>
+        <v>344654.6118925316</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.045252990608819e-06</v>
+        <v>3.457601658307855e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.904513888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>234634.9112405698</v>
+        <v>311761.2594593972</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.586267792209</v>
+        <v>340.1297643639208</v>
       </c>
       <c r="AB2" t="n">
-        <v>382.5422660689128</v>
+        <v>465.3805490688885</v>
       </c>
       <c r="AC2" t="n">
-        <v>346.0329690967375</v>
+        <v>420.9652826314559</v>
       </c>
       <c r="AD2" t="n">
-        <v>279586.2677922089</v>
+        <v>340129.7643639208</v>
       </c>
       <c r="AE2" t="n">
-        <v>382542.2660689128</v>
+        <v>465380.5490688885</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.59975152456209e-06</v>
+        <v>2.770435304443999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>346032.9690967374</v>
+        <v>420965.2826314559</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.4570881094055</v>
+        <v>270.9151543179973</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.9566726626007</v>
+        <v>370.6780660709684</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.4744919734953</v>
+        <v>335.3010716950876</v>
       </c>
       <c r="AD3" t="n">
-        <v>210457.0881094055</v>
+        <v>270915.1543179973</v>
       </c>
       <c r="AE3" t="n">
-        <v>287956.6726626008</v>
+        <v>370678.0660709684</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.932972726019508e-06</v>
+        <v>3.347504784630667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.84201388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>260474.4919734953</v>
+        <v>335301.0716950876</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.0761011081013</v>
+        <v>248.4436889813807</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.0164600368279</v>
+        <v>339.931615826166</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.1510294649831</v>
+        <v>307.4890195088373</v>
       </c>
       <c r="AD4" t="n">
-        <v>198076.1011081013</v>
+        <v>248443.6889813807</v>
       </c>
       <c r="AE4" t="n">
-        <v>271016.4600368279</v>
+        <v>339931.615826166</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.052304550483461e-06</v>
+        <v>3.554162565143893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.21701388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>245151.0294649831</v>
+        <v>307489.0195088373</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>178.9863879281974</v>
+        <v>229.4392271474974</v>
       </c>
       <c r="AB5" t="n">
-        <v>244.897072285389</v>
+        <v>313.9288727273763</v>
       </c>
       <c r="AC5" t="n">
-        <v>221.5244394217422</v>
+        <v>283.9679417163086</v>
       </c>
       <c r="AD5" t="n">
-        <v>178986.3879281974</v>
+        <v>229439.2271474974</v>
       </c>
       <c r="AE5" t="n">
-        <v>244897.072285389</v>
+        <v>313928.8727273763</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.128124447046961e-06</v>
+        <v>3.68546678020086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.852430555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>221524.4394217422</v>
+        <v>283967.9417163086</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.1922267050489</v>
+        <v>227.6450659243489</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.4422217470716</v>
+        <v>311.4740221890589</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.3038763733967</v>
+        <v>281.7473786679631</v>
       </c>
       <c r="AD6" t="n">
-        <v>177192.2267050489</v>
+        <v>227645.0659243489</v>
       </c>
       <c r="AE6" t="n">
-        <v>242442.2217470716</v>
+        <v>311474.0221890589</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.136551562938891e-06</v>
+        <v>3.700060783721523e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.809027777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>219303.8763733967</v>
+        <v>281747.3786679631</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.1204140150512</v>
+        <v>207.6119907326068</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.820302703179</v>
+        <v>284.063884914829</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.6500843400015</v>
+        <v>256.9532264248077</v>
       </c>
       <c r="AD2" t="n">
-        <v>162120.4140150512</v>
+        <v>207611.9907326068</v>
       </c>
       <c r="AE2" t="n">
-        <v>221820.302703179</v>
+        <v>284063.884914829</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.282474713451726e-06</v>
+        <v>4.318933322944122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>200650.0843400015</v>
+        <v>256953.2264248077</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.0856758285285</v>
+        <v>191.6625038921047</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.8808665136668</v>
+        <v>262.2410933779661</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.8045171482173</v>
+        <v>237.2131714837358</v>
       </c>
       <c r="AD3" t="n">
-        <v>146085.6758285285</v>
+        <v>191662.5038921047</v>
       </c>
       <c r="AE3" t="n">
-        <v>199880.8665136668</v>
+        <v>262241.0933779661</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.38329892227381e-06</v>
+        <v>4.509714422368726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>180804.5171482172</v>
+        <v>237213.1714837358</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.3810581055421</v>
+        <v>247.8643015089548</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.1702038882509</v>
+        <v>339.138872325622</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.0037844295345</v>
+        <v>306.7719343353625</v>
       </c>
       <c r="AD2" t="n">
-        <v>200381.0581055421</v>
+        <v>247864.3015089548</v>
       </c>
       <c r="AE2" t="n">
-        <v>274170.2038882509</v>
+        <v>339138.872325622</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.003703350407676e-06</v>
+        <v>3.650312350608328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.16319444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>248003.7844295345</v>
+        <v>306771.9343353625</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.3766257666994</v>
+        <v>206.8597796615611</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.0661305743915</v>
+        <v>283.0346765422144</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.2542051301706</v>
+        <v>256.0222442547721</v>
       </c>
       <c r="AD3" t="n">
-        <v>159376.6257666994</v>
+        <v>206859.7796615611</v>
       </c>
       <c r="AE3" t="n">
-        <v>218066.1305743915</v>
+        <v>283034.6765422144</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.278067444134222e-06</v>
+        <v>4.150144144416379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>197254.2051301706</v>
+        <v>256022.2442547721</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.452655549025</v>
+        <v>204.9358094438867</v>
       </c>
       <c r="AB4" t="n">
-        <v>215.4336696429952</v>
+        <v>280.4022156108181</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.8729825753838</v>
+        <v>253.6410216999853</v>
       </c>
       <c r="AD4" t="n">
-        <v>157452.655549025</v>
+        <v>204935.8094438867</v>
       </c>
       <c r="AE4" t="n">
-        <v>215433.6696429952</v>
+        <v>280402.2156108181</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.298611241832461e-06</v>
+        <v>4.187570482227825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.730902777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>194872.9825753838</v>
+        <v>253641.0216999853</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.2933842297898</v>
+        <v>190.2213827191053</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.1650623117204</v>
+        <v>260.2692878112902</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.061589698176</v>
+        <v>235.4295522728963</v>
       </c>
       <c r="AD2" t="n">
-        <v>146293.3842297898</v>
+        <v>190221.3827191053</v>
       </c>
       <c r="AE2" t="n">
-        <v>200165.0623117204</v>
+        <v>260269.2878112902</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.42706880339212e-06</v>
+        <v>4.756272851945035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.00868055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>181061.589698176</v>
+        <v>235429.5522728963</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.4751325516391</v>
+        <v>361.5344857811596</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.4408912155747</v>
+        <v>494.6674332216175</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.5096903697536</v>
+        <v>447.4570676650485</v>
       </c>
       <c r="AD2" t="n">
-        <v>290475.1325516392</v>
+        <v>361534.4857811596</v>
       </c>
       <c r="AE2" t="n">
-        <v>397440.8912155746</v>
+        <v>494667.4332216175</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.543504345036266e-06</v>
+        <v>2.655570219004292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.45486111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>359509.6903697536</v>
+        <v>447457.0676650485</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.0770187914892</v>
+        <v>278.9556407501235</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.0650391582956</v>
+        <v>381.6794143286298</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.2819898071536</v>
+        <v>345.2524667155271</v>
       </c>
       <c r="AD3" t="n">
-        <v>228077.0187914892</v>
+        <v>278955.6407501235</v>
       </c>
       <c r="AE3" t="n">
-        <v>312065.0391582956</v>
+        <v>381679.4143286298</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.879116394881754e-06</v>
+        <v>3.232984443703297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.05034722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>282281.9898071536</v>
+        <v>345252.4667155271</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.2249099522032</v>
+        <v>255.0181910562623</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.4295315636251</v>
+        <v>348.9271396115756</v>
       </c>
       <c r="AC4" t="n">
-        <v>252.7611692530855</v>
+        <v>315.6260231294672</v>
       </c>
       <c r="AD4" t="n">
-        <v>204224.9099522032</v>
+        <v>255018.1910562624</v>
       </c>
       <c r="AE4" t="n">
-        <v>279429.5315636251</v>
+        <v>348927.1396115756</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.007929205171826e-06</v>
+        <v>3.454604463065489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.34722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>252761.1692530854</v>
+        <v>315626.0231294672</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.4886167708435</v>
+        <v>245.3721740017959</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.4254645290983</v>
+        <v>335.7290335254228</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.3343324758792</v>
+        <v>303.6875257645144</v>
       </c>
       <c r="AD5" t="n">
-        <v>184488.6167708435</v>
+        <v>245372.1740017959</v>
       </c>
       <c r="AE5" t="n">
-        <v>252425.4645290983</v>
+        <v>335729.0335254228</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.084767015656949e-06</v>
+        <v>3.586802472014401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.965277777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>228334.3324758792</v>
+        <v>303687.5257645144</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.3846869608089</v>
+        <v>231.2632194108886</v>
       </c>
       <c r="AB6" t="n">
-        <v>246.8102867104066</v>
+        <v>316.4245394110064</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.25505934725</v>
+        <v>286.225425474344</v>
       </c>
       <c r="AD6" t="n">
-        <v>180384.6869608089</v>
+        <v>231263.2194108886</v>
       </c>
       <c r="AE6" t="n">
-        <v>246810.2867104066</v>
+        <v>316424.5394110064</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.113027823561942e-06</v>
+        <v>3.635424660917754e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>223255.05934725</v>
+        <v>286225.4254743441</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.797986907623</v>
+        <v>231.6765193577027</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.3757819311442</v>
+        <v>316.990034631744</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.7665844977981</v>
+        <v>286.7369506248922</v>
       </c>
       <c r="AD7" t="n">
-        <v>180797.986907623</v>
+        <v>231676.5193577028</v>
       </c>
       <c r="AE7" t="n">
-        <v>247375.7819311442</v>
+        <v>316990.034631744</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.111998852571328e-06</v>
+        <v>3.633654335665559e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.835069444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>223766.5844977981</v>
+        <v>286736.9506248922</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.1342065066723</v>
+        <v>184.1363325752575</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.1060477440971</v>
+        <v>251.9434537510161</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.6762775734953</v>
+        <v>227.8983241299505</v>
       </c>
       <c r="AD2" t="n">
-        <v>141134.2065066723</v>
+        <v>184136.3325752575</v>
       </c>
       <c r="AE2" t="n">
-        <v>193106.0477440971</v>
+        <v>251943.4537510161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.441491315414189e-06</v>
+        <v>4.894360899838805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174676.2775734953</v>
+        <v>227898.3241299505</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.680794468129</v>
+        <v>297.481053588001</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.5735928446336</v>
+        <v>407.0267014569473</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.405867492555</v>
+        <v>368.1806443354589</v>
       </c>
       <c r="AD2" t="n">
-        <v>238680.794468129</v>
+        <v>297481.0535880011</v>
       </c>
       <c r="AE2" t="n">
-        <v>326573.5928446336</v>
+        <v>407026.7014569473</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.786090671459239e-06</v>
+        <v>3.163299298014998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.09201388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>295405.8674925551</v>
+        <v>368180.6443354589</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0063619294732</v>
+        <v>238.9923693050268</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.975086880868</v>
+        <v>326.9999032821887</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.16342946636</v>
+        <v>295.7914914602805</v>
       </c>
       <c r="AD3" t="n">
-        <v>190006.3619294732</v>
+        <v>238992.3693050268</v>
       </c>
       <c r="AE3" t="n">
-        <v>259975.0868808681</v>
+        <v>326999.9032821886</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.093064510066562e-06</v>
+        <v>3.706972776462856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.32118055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>235163.42946636</v>
+        <v>295791.4914602805</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.6013202481772</v>
+        <v>217.6725789697513</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.6877645287415</v>
+        <v>297.8292255827113</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.6712480544959</v>
+        <v>269.4048222991287</v>
       </c>
       <c r="AD4" t="n">
-        <v>168601.3202481772</v>
+        <v>217672.5789697513</v>
       </c>
       <c r="AE4" t="n">
-        <v>230687.7645287415</v>
+        <v>297829.2255827113</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.209171723356162e-06</v>
+        <v>3.912607278765811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.774305555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>208671.248054496</v>
+        <v>269404.8222991287</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.7453980964962</v>
+        <v>216.8166568180702</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.5166540801918</v>
+        <v>296.6581151341617</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.6119067434916</v>
+        <v>268.3454809881244</v>
       </c>
       <c r="AD5" t="n">
-        <v>167745.3980964962</v>
+        <v>216816.6568180702</v>
       </c>
       <c r="AE5" t="n">
-        <v>229516.6540801918</v>
+        <v>296658.1151341617</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.215341551703242e-06</v>
+        <v>3.923534503229306e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.748263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>207611.9067434916</v>
+        <v>268345.4809881244</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.9589334739975</v>
+        <v>328.8889344762055</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.3190372409713</v>
+        <v>450.0003497061014</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.5033256165843</v>
+        <v>407.0529479096078</v>
       </c>
       <c r="AD2" t="n">
-        <v>258958.9334739976</v>
+        <v>328888.9344762055</v>
       </c>
       <c r="AE2" t="n">
-        <v>354319.0372409713</v>
+        <v>450000.3497061013</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.658676830877803e-06</v>
+        <v>2.892587558709729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>320503.3256165843</v>
+        <v>407052.9479096078</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.7076973848985</v>
+        <v>263.6355066932832</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.721858511231</v>
+        <v>360.7177310354473</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.1210355235863</v>
+        <v>326.2913370559386</v>
       </c>
       <c r="AD3" t="n">
-        <v>203707.6973848985</v>
+        <v>263635.5066932832</v>
       </c>
       <c r="AE3" t="n">
-        <v>278721.858511231</v>
+        <v>360717.7310354473</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.984557125854809e-06</v>
+        <v>3.460894337541555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>252121.0355235863</v>
+        <v>326291.3370559387</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.4310113616023</v>
+        <v>241.3567184847093</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.9243550850032</v>
+        <v>330.2349101375528</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.9266622489081</v>
+        <v>298.7177538017303</v>
       </c>
       <c r="AD4" t="n">
-        <v>191431.0113616023</v>
+        <v>241356.7184847093</v>
       </c>
       <c r="AE4" t="n">
-        <v>261924.3550850032</v>
+        <v>330234.9101375528</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.107069981158454e-06</v>
+        <v>3.674546059466063e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.04340277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>236926.6622489081</v>
+        <v>298717.7538017303</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.2380758259172</v>
+        <v>224.2490342950447</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.4002221863069</v>
+        <v>306.8274218915057</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.6476395777281</v>
+        <v>277.5442433812624</v>
       </c>
       <c r="AD5" t="n">
-        <v>174238.0758259172</v>
+        <v>224249.0342950447</v>
       </c>
       <c r="AE5" t="n">
-        <v>238400.2221863069</v>
+        <v>306827.4218915057</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.158844216069903e-06</v>
+        <v>3.764835804266631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.800347222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>215647.6395777281</v>
+        <v>277544.2433812624</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>174.2082792913106</v>
+        <v>224.2192377604381</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.3594532531279</v>
+        <v>306.7866529583267</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.6107615743121</v>
+        <v>277.5073653778465</v>
       </c>
       <c r="AD6" t="n">
-        <v>174208.2792913106</v>
+        <v>224219.2377604381</v>
       </c>
       <c r="AE6" t="n">
-        <v>238359.4532531279</v>
+        <v>306786.6529583267</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.157893559214185e-06</v>
+        <v>3.763177941720859e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.809027777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>215610.7615743121</v>
+        <v>277507.3653778465</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.5361277707879</v>
+        <v>396.8128536917129</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.0446475394702</v>
+        <v>542.9368525685854</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.6656495988794</v>
+        <v>491.1197213760974</v>
       </c>
       <c r="AD2" t="n">
-        <v>324536.1277707879</v>
+        <v>396812.8536917128</v>
       </c>
       <c r="AE2" t="n">
-        <v>444044.6475394702</v>
+        <v>542936.8525685854</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.435614154355542e-06</v>
+        <v>2.440448915096969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.22743055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>401665.6495988794</v>
+        <v>491119.7213760974</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.5090884409197</v>
+        <v>303.3630481834267</v>
       </c>
       <c r="AB3" t="n">
-        <v>330.4433894337279</v>
+        <v>415.0747059576961</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.9063361264811</v>
+        <v>375.4605585821014</v>
       </c>
       <c r="AD3" t="n">
-        <v>241509.0884409197</v>
+        <v>303363.0481834267</v>
       </c>
       <c r="AE3" t="n">
-        <v>330443.3894337279</v>
+        <v>415074.7059576961</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.792206056995997e-06</v>
+        <v>3.046631515965738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.39756944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>298906.3361264811</v>
+        <v>375460.5585821014</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.8316824379287</v>
+        <v>277.7708935264558</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.3104297332497</v>
+        <v>380.0583909098491</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.1264167903868</v>
+        <v>343.7861514967141</v>
       </c>
       <c r="AD4" t="n">
-        <v>215831.6824379287</v>
+        <v>277770.8935264559</v>
       </c>
       <c r="AE4" t="n">
-        <v>295310.4297332498</v>
+        <v>380058.3909098491</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.928669044282526e-06</v>
+        <v>3.278609550080205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>267126.4167903868</v>
+        <v>343786.1514967141</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>206.8937522768598</v>
+        <v>258.4956275500885</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.081159373232</v>
+        <v>353.6851216362643</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.0642908296364</v>
+        <v>319.9299100274843</v>
       </c>
       <c r="AD5" t="n">
-        <v>206893.7522768598</v>
+        <v>258495.6275500885</v>
       </c>
       <c r="AE5" t="n">
-        <v>283081.159373232</v>
+        <v>353685.1216362643</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.004288361720268e-06</v>
+        <v>3.407157377949842e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.19097222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>256064.2908296364</v>
+        <v>319929.9100274843</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>190.1789931937361</v>
+        <v>252.0328634276881</v>
       </c>
       <c r="AB6" t="n">
-        <v>260.2112885925862</v>
+        <v>344.8424826468027</v>
       </c>
       <c r="AC6" t="n">
-        <v>235.377088418223</v>
+        <v>311.9312000925588</v>
       </c>
       <c r="AD6" t="n">
-        <v>190178.9931937361</v>
+        <v>252032.8634276881</v>
       </c>
       <c r="AE6" t="n">
-        <v>260211.2885925862</v>
+        <v>344842.4826468027</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.044874336387382e-06</v>
+        <v>3.476150844992507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>235377.088418223</v>
+        <v>311931.2000925588</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>186.8238928288406</v>
+        <v>248.6777630627926</v>
       </c>
       <c r="AB7" t="n">
-        <v>255.6206922567568</v>
+        <v>340.2518863109733</v>
       </c>
       <c r="AC7" t="n">
-        <v>231.2246121537413</v>
+        <v>307.7787238280771</v>
       </c>
       <c r="AD7" t="n">
-        <v>186823.8928288406</v>
+        <v>248677.7630627926</v>
       </c>
       <c r="AE7" t="n">
-        <v>255620.6922567568</v>
+        <v>340251.8863109733</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.061767513089404e-06</v>
+        <v>3.504868125767367e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.904513888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>231224.6121537413</v>
+        <v>307778.7238280771</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>187.0405450641125</v>
+        <v>248.8944152980645</v>
       </c>
       <c r="AB8" t="n">
-        <v>255.9171254030778</v>
+        <v>340.5483194572942</v>
       </c>
       <c r="AC8" t="n">
-        <v>231.492754136624</v>
+        <v>308.0468658109598</v>
       </c>
       <c r="AD8" t="n">
-        <v>187040.5450641125</v>
+        <v>248894.4152980645</v>
       </c>
       <c r="AE8" t="n">
-        <v>255917.1254030777</v>
+        <v>340548.3194572942</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.061155782456741e-06</v>
+        <v>3.503828224235129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>231492.754136624</v>
+        <v>308046.8658109598</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.1586085727529</v>
+        <v>266.6368945390872</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.1800356756793</v>
+        <v>364.824362297963</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.8674147270793</v>
+        <v>330.006037194453</v>
       </c>
       <c r="AD2" t="n">
-        <v>209158.6085727529</v>
+        <v>266636.8945390872</v>
       </c>
       <c r="AE2" t="n">
-        <v>286180.0356756793</v>
+        <v>364824.362297963</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.932962068193022e-06</v>
+        <v>3.485588024984628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>258867.4147270793</v>
+        <v>330006.0371944529</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.5101529081977</v>
+        <v>223.9883493659776</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.826537118391</v>
+        <v>306.4707412709489</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.0830921724305</v>
+        <v>277.2216038585271</v>
       </c>
       <c r="AD3" t="n">
-        <v>166510.1529081977</v>
+        <v>223988.3493659776</v>
       </c>
       <c r="AE3" t="n">
-        <v>227826.537118391</v>
+        <v>306470.7412709489</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.211935787805815e-06</v>
+        <v>3.988643657771453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>206083.0921724305</v>
+        <v>277221.6038585271</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.9216441842314</v>
+        <v>208.9623759900007</v>
       </c>
       <c r="AB4" t="n">
-        <v>220.1800929346598</v>
+        <v>285.9115415987874</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.1664138897403</v>
+        <v>258.6245453480522</v>
       </c>
       <c r="AD4" t="n">
-        <v>160921.6441842314</v>
+        <v>208962.3759900007</v>
       </c>
       <c r="AE4" t="n">
-        <v>220180.0929346598</v>
+        <v>285911.5415987874</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268035977406782e-06</v>
+        <v>4.089805575167636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>199166.4138897403</v>
+        <v>258624.5453480522</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9828648155946</v>
+        <v>227.4078469578797</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.3145429890972</v>
+        <v>311.1494487337738</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8564532723212</v>
+        <v>281.4537820477086</v>
       </c>
       <c r="AD2" t="n">
-        <v>171982.8648155946</v>
+        <v>227407.8469578797</v>
       </c>
       <c r="AE2" t="n">
-        <v>235314.5429890972</v>
+        <v>311149.4487337738</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.177285349339205e-06</v>
+        <v>4.062118508416726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>212856.4532723212</v>
+        <v>281453.7820477086</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.9544283270044</v>
+        <v>196.2130308243851</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.1742643593934</v>
+        <v>268.4673250817885</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.5927205328799</v>
+        <v>242.8451803723185</v>
       </c>
       <c r="AD3" t="n">
-        <v>149954.4283270044</v>
+        <v>196213.0308243851</v>
       </c>
       <c r="AE3" t="n">
-        <v>205174.2643593934</v>
+        <v>268467.3250817885</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.359465989587992e-06</v>
+        <v>4.402009350402323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>185592.7205328799</v>
+        <v>242845.1803723185</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.4062868151507</v>
+        <v>197.036540984963</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.2148082592645</v>
+        <v>269.5940880141949</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.4883423482688</v>
+        <v>243.864406631878</v>
       </c>
       <c r="AD2" t="n">
-        <v>143406.2868151507</v>
+        <v>197036.540984963</v>
       </c>
       <c r="AE2" t="n">
-        <v>196214.8082592645</v>
+        <v>269594.0880141949</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384476768828554e-06</v>
+        <v>4.585437251458509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.982638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>177488.3423482688</v>
+        <v>243864.406631878</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.1641968098264</v>
+        <v>186.9983100422893</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.515325916837</v>
+        <v>255.8593375829416</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.9510562153636</v>
+        <v>231.4404815049359</v>
       </c>
       <c r="AD3" t="n">
-        <v>142164.1968098264</v>
+        <v>186998.3100422893</v>
       </c>
       <c r="AE3" t="n">
-        <v>194515.325916837</v>
+        <v>255859.3375829416</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.410944746213292e-06</v>
+        <v>4.636336153497452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>175951.0562153636</v>
+        <v>231440.4815049359</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.7584439220742</v>
+        <v>186.0855035681177</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.7506922139465</v>
+        <v>254.6103954948012</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.0229068518336</v>
+        <v>230.310736696786</v>
       </c>
       <c r="AD2" t="n">
-        <v>135758.4439220742</v>
+        <v>186085.5035681177</v>
       </c>
       <c r="AE2" t="n">
-        <v>185750.6922139465</v>
+        <v>254610.3954948012</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.410135198656334e-06</v>
+        <v>4.971143225141012e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>168022.9068518336</v>
+        <v>230310.736696786</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.5628482938585</v>
+        <v>307.9389527689654</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.0946548544358</v>
+        <v>421.3356604862926</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.6364983210758</v>
+        <v>381.1239763977936</v>
       </c>
       <c r="AD2" t="n">
-        <v>248562.8482938585</v>
+        <v>307938.9527689653</v>
       </c>
       <c r="AE2" t="n">
-        <v>340094.6548544358</v>
+        <v>421335.6604862926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721765404573659e-06</v>
+        <v>3.025073896020383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.41319444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>307636.4983210758</v>
+        <v>381123.9763977936</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.2054393146703</v>
+        <v>246.8419100201782</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.8251821601689</v>
+        <v>337.7399911859494</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.073445476903</v>
+        <v>305.5065604483178</v>
       </c>
       <c r="AD3" t="n">
-        <v>197205.4393146703</v>
+        <v>246841.9100201782</v>
       </c>
       <c r="AE3" t="n">
-        <v>269825.1821601689</v>
+        <v>337739.9911859494</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03435484837759e-06</v>
+        <v>3.574281217825617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.50347222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>244073.445476903</v>
+        <v>305506.5604483178</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.3833209409165</v>
+        <v>234.6739950528968</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.9671970772968</v>
+        <v>321.0913131172011</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.0650645843855</v>
+        <v>290.4468088478791</v>
       </c>
       <c r="AD4" t="n">
-        <v>175383.3209409165</v>
+        <v>234673.9950528968</v>
       </c>
       <c r="AE4" t="n">
-        <v>239967.1970772968</v>
+        <v>321091.3131172011</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.151492800147229e-06</v>
+        <v>3.780087978253222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>217065.0645843855</v>
+        <v>290446.8088478791</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.5434829558726</v>
+        <v>220.0946128068089</v>
       </c>
       <c r="AB5" t="n">
-        <v>233.3451172275806</v>
+        <v>301.1431591311635</v>
       </c>
       <c r="AC5" t="n">
-        <v>211.0749867413766</v>
+        <v>272.4024786808526</v>
       </c>
       <c r="AD5" t="n">
-        <v>170543.4829558726</v>
+        <v>220094.6128068089</v>
       </c>
       <c r="AE5" t="n">
-        <v>233345.1172275806</v>
+        <v>301143.1591311635</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.185073331087496e-06</v>
+        <v>3.839087646438017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.782986111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>211074.9867413766</v>
+        <v>272402.4786808526</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.7138302230043</v>
+        <v>373.5191776299132</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.8181731858847</v>
+        <v>511.0654173363708</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.4193861309681</v>
+        <v>462.2900511906051</v>
       </c>
       <c r="AD2" t="n">
-        <v>301713.8302230043</v>
+        <v>373519.1776299132</v>
       </c>
       <c r="AE2" t="n">
-        <v>412818.1731858847</v>
+        <v>511065.4173363709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.489807422734736e-06</v>
+        <v>2.547404665168343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>373419.3861309681</v>
+        <v>462290.0511906051</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.0774129796881</v>
+        <v>285.3670363503198</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.275043205294</v>
+        <v>390.4517686396298</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.708442590722</v>
+        <v>353.1875998431618</v>
       </c>
       <c r="AD3" t="n">
-        <v>234077.4129796881</v>
+        <v>285367.0363503199</v>
       </c>
       <c r="AE3" t="n">
-        <v>320275.0432052939</v>
+        <v>390451.7686396298</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.840682478982496e-06</v>
+        <v>3.147361908995215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.18923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>289708.4425907221</v>
+        <v>353187.5998431618</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.9469207954798</v>
+        <v>261.1512033115396</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.2586392366945</v>
+        <v>357.3185975488158</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.8430778780613</v>
+        <v>323.2166120985574</v>
       </c>
       <c r="AD4" t="n">
-        <v>209946.9207954798</v>
+        <v>261151.2033115396</v>
       </c>
       <c r="AE4" t="n">
-        <v>287258.6392366946</v>
+        <v>357318.5975488158</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.968862190199983e-06</v>
+        <v>3.366534930523043e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.46006944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>259843.0778780613</v>
+        <v>323216.6120985574</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.1075611897198</v>
+        <v>252.3118437057763</v>
       </c>
       <c r="AB5" t="n">
-        <v>275.1642374590763</v>
+        <v>345.2241957710239</v>
       </c>
       <c r="AC5" t="n">
-        <v>248.9029488314955</v>
+        <v>312.2764830519423</v>
       </c>
       <c r="AD5" t="n">
-        <v>201107.5611897198</v>
+        <v>252311.8437057763</v>
       </c>
       <c r="AE5" t="n">
-        <v>275164.2374590763</v>
+        <v>345224.1957710239</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.042714391018054e-06</v>
+        <v>3.49281396365577e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH5" t="n">
-        <v>248902.9488314955</v>
+        <v>312276.4830519423</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.6609516774789</v>
+        <v>235.950485539556</v>
       </c>
       <c r="AB6" t="n">
-        <v>252.6612607512363</v>
+        <v>322.8378637158332</v>
       </c>
       <c r="AC6" t="n">
-        <v>228.5476246375185</v>
+        <v>292.0266711086774</v>
       </c>
       <c r="AD6" t="n">
-        <v>184660.9516774789</v>
+        <v>235950.485539556</v>
       </c>
       <c r="AE6" t="n">
-        <v>252661.2607512363</v>
+        <v>322837.8637158332</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.084088704614815e-06</v>
+        <v>3.563559429053611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>228547.6246375185</v>
+        <v>292026.6711086774</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>183.3936107676174</v>
+        <v>234.6831446296945</v>
       </c>
       <c r="AB7" t="n">
-        <v>250.9272290072297</v>
+        <v>321.1038319718266</v>
       </c>
       <c r="AC7" t="n">
-        <v>226.9790864494305</v>
+        <v>290.4581329205895</v>
       </c>
       <c r="AD7" t="n">
-        <v>183393.6107676174</v>
+        <v>234683.1446296946</v>
       </c>
       <c r="AE7" t="n">
-        <v>250927.2290072297</v>
+        <v>321103.8319718266</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.091585426573861e-06</v>
+        <v>3.576377988150926e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH7" t="n">
-        <v>226979.0864494305</v>
+        <v>290458.1329205895</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.1369174167797</v>
+        <v>185.9644882172626</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.6367804633601</v>
+        <v>254.4448169529408</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.7289894858653</v>
+        <v>230.1609607385697</v>
       </c>
       <c r="AD2" t="n">
-        <v>137136.9174167797</v>
+        <v>185964.4882172626</v>
       </c>
       <c r="AE2" t="n">
-        <v>187636.7804633601</v>
+        <v>254444.8169529408</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.297007606587943e-06</v>
+        <v>4.923545280711363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>169728.9894858653</v>
+        <v>230160.9607385697</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3571344405522</v>
+        <v>237.5412574364562</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.1408322535458</v>
+        <v>325.014428005074</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4586194911849</v>
+        <v>293.995507156981</v>
       </c>
       <c r="AD2" t="n">
-        <v>181357.1344405522</v>
+        <v>237541.2574364562</v>
       </c>
       <c r="AE2" t="n">
-        <v>248140.8322535458</v>
+        <v>325014.428005074</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.088251006762571e-06</v>
+        <v>3.847461596323099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>224458.6194911849</v>
+        <v>293995.507156981</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.5989321111645</v>
+        <v>200.4901519865608</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.1608352210381</v>
+        <v>274.319470949143</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.103380070187</v>
+        <v>248.1388056516328</v>
       </c>
       <c r="AD3" t="n">
-        <v>153598.9321111645</v>
+        <v>200490.1519865608</v>
       </c>
       <c r="AE3" t="n">
-        <v>210160.8352210381</v>
+        <v>274319.4709491429</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.330143652533652e-06</v>
+        <v>4.293132476894133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.730902777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>190103.380070187</v>
+        <v>248138.8056516328</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.1519055467858</v>
+        <v>201.0431254221822</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.917437871121</v>
+        <v>275.0760735992258</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.7877736252447</v>
+        <v>248.8231992066904</v>
       </c>
       <c r="AD4" t="n">
-        <v>154151.9055467858</v>
+        <v>201043.1254221821</v>
       </c>
       <c r="AE4" t="n">
-        <v>210917.437871121</v>
+        <v>275076.0735992258</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.328184055597723e-06</v>
+        <v>4.289522051743687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>190787.7736252447</v>
+        <v>248823.1992066904</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.3892354490419</v>
+        <v>277.6718208944589</v>
       </c>
       <c r="AB2" t="n">
-        <v>300.1780307112145</v>
+        <v>379.9228353639748</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.529460762737</v>
+        <v>343.6635331818847</v>
       </c>
       <c r="AD2" t="n">
-        <v>219389.2354490419</v>
+        <v>277671.8208944589</v>
       </c>
       <c r="AE2" t="n">
-        <v>300178.0307112145</v>
+        <v>379922.8353639748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.852787194822005e-06</v>
+        <v>3.309869110325763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.78819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>271529.460762737</v>
+        <v>343663.5331818847</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.0945405484774</v>
+        <v>231.5781104069681</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.5180279393557</v>
+        <v>316.8553871638524</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.6089389571569</v>
+        <v>286.6151537223571</v>
       </c>
       <c r="AD3" t="n">
-        <v>183094.5405484774</v>
+        <v>231578.110406968</v>
       </c>
       <c r="AE3" t="n">
-        <v>250518.0279393557</v>
+        <v>316855.3871638523</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.154503752391895e-06</v>
+        <v>3.848863721668779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.13888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>226608.9389571569</v>
+        <v>286615.1537223571</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.1211948365751</v>
+        <v>212.6900160410863</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.5578592914067</v>
+        <v>291.0118631685526</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.1263723696345</v>
+        <v>263.238099385547</v>
       </c>
       <c r="AD4" t="n">
-        <v>164121.194836575</v>
+        <v>212690.0160410863</v>
       </c>
       <c r="AE4" t="n">
-        <v>224557.8592914068</v>
+        <v>291011.8631685526</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.246925515983005e-06</v>
+        <v>4.013968457542903e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>203126.3723696345</v>
+        <v>263238.099385547</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>164.4102772764145</v>
+        <v>212.9790984809257</v>
       </c>
       <c r="AB5" t="n">
-        <v>224.9533946390121</v>
+        <v>291.407398516158</v>
       </c>
       <c r="AC5" t="n">
-        <v>203.4841583788018</v>
+        <v>263.5958853947143</v>
       </c>
       <c r="AD5" t="n">
-        <v>164410.2772764145</v>
+        <v>212979.0984809257</v>
       </c>
       <c r="AE5" t="n">
-        <v>224953.3946390121</v>
+        <v>291407.398516158</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.247252539098597e-06</v>
+        <v>4.014552660473324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>203484.1583788018</v>
+        <v>263595.8853947143</v>
       </c>
     </row>
   </sheetData>
